--- a/public/static/template/ysbmb.xlsx
+++ b/public/static/template/ysbmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>费用类别</t>
   </si>
@@ -27,18 +27,32 @@
 预算数</t>
   </si>
   <si>
+    <t>1-X月累计
+执行率</t>
+  </si>
+  <si>
     <t>全年预算数</t>
   </si>
   <si>
+    <t>全年累计
+执行比率</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>D/E(%)</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>D/F(%)</t>
+  </si>
+  <si>
     <t>办公费</t>
   </si>
   <si>
@@ -91,6 +105,9 @@
   </si>
   <si>
     <t>折旧</t>
+  </si>
+  <si>
+    <t>费用合计</t>
   </si>
 </sst>
 </file>
@@ -100,12 +117,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +163,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -155,28 +187,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -186,15 +196,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,59 +227,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +248,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +270,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,43 +316,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,43 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,91 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +529,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,50 +558,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,11 +586,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,152 +627,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +786,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,21 +1110,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.3214285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5357142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.6428571428571" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43" customHeight="1" spans="1:4">
+    <row r="1" ht="43" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1110,162 +1137,343 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="17.4" customHeight="1" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" customHeight="1" spans="1:6">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D3" s="5" t="e">
+        <f>B3/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="e">
+        <f>B3/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D4" s="5" t="e">
+        <f>B4/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="e">
+        <f>B4/E4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D5" s="5" t="e">
+        <f>B5/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="e">
+        <f>B5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D6" s="5" t="e">
+        <f>B6/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="e">
+        <f>B6/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D7" s="5" t="e">
+        <f>B7/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="e">
+        <f>B7/E7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D8" s="5" t="e">
+        <f>B8/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="e">
+        <f>B8/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D9" s="5" t="e">
+        <f>B9/C9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="e">
+        <f>B9/E9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D10" s="5" t="e">
+        <f>B10/C10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="e">
+        <f>B10/E10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D11" s="5" t="e">
+        <f>B11/C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="e">
+        <f>B11/E11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D12" s="5" t="e">
+        <f>B12/C12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="e">
+        <f>B12/E12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D13" s="5" t="e">
+        <f>B13/C13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="e">
+        <f>B13/E13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D14" s="5" t="e">
+        <f>B14/C14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5" t="e">
+        <f>B14/E14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D15" s="5" t="e">
+        <f>B15/C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5" t="e">
+        <f>B15/E15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D16" s="5" t="e">
+        <f>B16/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="e">
+        <f>B16/E16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D17" s="5" t="e">
+        <f>B17/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="e">
+        <f>B17/E17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D18" s="5" t="e">
+        <f>B18/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="e">
+        <f>B18/E18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1" spans="1:4">
+      <c r="D19" s="5" t="e">
+        <f>B19/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="e">
+        <f>B19/E19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" customHeight="1" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5" t="e">
+        <f>B20/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="e">
+        <f>B20/E20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" customHeight="1" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUM(B3:B20)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUM(C3:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="e">
+        <f>B21/C21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="4">
+        <f>SUM(E3:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="e">
+        <f>B21/E21</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/public/static/template/ysbmb.xlsx
+++ b/public/static/template/ysbmb.xlsx
@@ -19,19 +19,23 @@
     <t>费用类别</t>
   </si>
   <si>
-    <t>全年累计执行数</t>
-  </si>
-  <si>
-    <t>1-X月累计预算数</t>
-  </si>
-  <si>
-    <t>1-X月累计执行率</t>
+    <t>全年累计
+执行数</t>
+  </si>
+  <si>
+    <t>1-X月累计
+预算数</t>
+  </si>
+  <si>
+    <t>1-X月累计
+执行率</t>
   </si>
   <si>
     <t>全年预算数</t>
   </si>
   <si>
-    <t>全年累计执行比率</t>
+    <t>全年累计
+执行比率</t>
   </si>
   <si>
     <t>D</t>
@@ -1102,7 +1106,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
@@ -1155,396 +1159,288 @@
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="e">
         <f t="shared" ref="D3:D21" si="0">B3/C3</f>
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="e">
         <f t="shared" ref="F3:F21" si="1">B3/E3</f>
-        <v>0.333333333333333</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>0.714285714285714</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="E9" s="4">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.777777777777778</v>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.888888888888889</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.818181818181818</v>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.909090909090909</v>
-      </c>
-      <c r="E12" s="4">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.916666666666667</v>
-      </c>
-      <c r="E13" s="4">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.846153846153846</v>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.923076923076923</v>
-      </c>
-      <c r="E14" s="4">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.857142857142857</v>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.928571428571429</v>
-      </c>
-      <c r="E15" s="4">
-        <v>15</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.866666666666667</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.933333333333333</v>
-      </c>
-      <c r="E16" s="4">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="E17" s="4">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.882352941176471</v>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.941176470588235</v>
-      </c>
-      <c r="E18" s="4">
-        <v>18</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
-        <v>0.888888888888889</v>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.944444444444444</v>
-      </c>
-      <c r="E19" s="4">
-        <v>19</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="1"/>
-        <v>0.894736842105263</v>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.947368421052632</v>
-      </c>
-      <c r="E20" s="4">
-        <v>20</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="1:6">
@@ -1553,23 +1449,23 @@
       </c>
       <c r="B21" s="4">
         <f>SUM(B3:B20)</f>
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4">
         <f>SUM(C3:C20)</f>
-        <v>189</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.904761904761905</v>
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E21" s="4">
         <f>SUM(E3:E20)</f>
-        <v>207</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="1"/>
-        <v>0.826086956521739</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
